--- a/biology/Mycologie/Humaria_hemisphaerica/Humaria_hemisphaerica.xlsx
+++ b/biology/Mycologie/Humaria_hemisphaerica/Humaria_hemisphaerica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pézize hémisphérique
-Humaria hemisphaerica, la Pézize hémisphérique[1], est une espèce de petits champignons assez rares, en forme de coupe (d'où son nom anglais de  hairy fairy cup ou Glazed Cup[2] et appartenant à la famille des Pyronemataceae, du groupe des discomycètes operculés.
+Humaria hemisphaerica, la Pézize hémisphérique, est une espèce de petits champignons assez rares, en forme de coupe (d'où son nom anglais de  hairy fairy cup ou Glazed Cup et appartenant à la famille des Pyronemataceae, du groupe des discomycètes operculés.
 À ne pas confondre avec Trichophaea hemisphaerica qui est plus petit (5 à 10 mm de diamètre) et inféodé aux zones brûlées.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Répartition et habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hémisphère nord, zone tempérée (à confirmer). C'est une espèce nécrotrophe qui se nourrit des débris forestiers. On la trouve au sol, en groupe ou isolé, tant sur le sol nu, que parmi les mousses (et parfois sur le bois mort)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hémisphère nord, zone tempérée (à confirmer). C'est une espèce nécrotrophe qui se nourrit des débris forestiers. On la trouve au sol, en groupe ou isolé, tant sur le sol nu, que parmi les mousses (et parfois sur le bois mort).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Apothécies sessiles de 1 à 3 cm de diamètre, globuleuses puis devenant cupuliformes.
 Hyménium sur la face interne de la cupule, grisâtre pâle.
@@ -581,7 +597,9 @@
           <t>Menaces, statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, il ne s'agit pas d'une espèce protégée. Il semble assez rare, et peut-être en recul en raison de la raréfaction du bois mort en forêt et en Europe depuis le Moyen Âge à la suite du drainage de nombreuses forêts humides.
 Il est parfois « cueilli ». Bien que jugé comestible, il est considéré comme sans intérêt culinaire. Certains mycologues recommandent de ne pas le ramasser en raison de sa rareté.
@@ -613,9 +631,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (28 janvier 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (28 janvier 2023) :
 Humaria hemisphaerica subsp. gregaria (Rehm) P.Karst., 1885
 Humaria hemisphaerica subsp. hemisphaerica</t>
         </is>
@@ -645,11 +665,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Humaria hemisphaerica (F.H.Wigg.) Fuckel, 1870[4].
-L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza hemisphaerica F.H.Wigg., 1780[4].
-Humaria hemisphaerica a pour synonymes[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Humaria hemisphaerica (F.H.Wigg.) Fuckel, 1870.
+L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza hemisphaerica F.H.Wigg., 1780.
+Humaria hemisphaerica a pour synonymes :
 Helvella albida Schaeff., 1774
 Humaria hemisphaerica subsp. hemisphaerica
 Lachnea hemisphaerica (F.H.Wigg.) Quél., 1881
@@ -685,7 +707,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) L. Fuckel, Symbolae mycologicae. Beiträge zur Kenntniss der Rheinischen Pilze, Wiesbaden, J. Niedner, 1870, 459 p. (lire en ligne).</t>
         </is>
